--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3092.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3092.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.329456102103804</v>
+        <v>1.257729649543762</v>
       </c>
       <c r="B1">
-        <v>2.645129917928835</v>
+        <v>2.390511274337769</v>
       </c>
       <c r="C1">
-        <v>3.327769487093715</v>
+        <v>4.251569747924805</v>
       </c>
       <c r="D1">
-        <v>3.931994103969371</v>
+        <v>2.694173812866211</v>
       </c>
       <c r="E1">
-        <v>1.867348804319457</v>
+        <v>1.354652285575867</v>
       </c>
     </row>
   </sheetData>
